--- a/TroubleShooting.xlsx
+++ b/TroubleShooting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -24,10 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="39">
   <si>
-    <t>분류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제안자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -37,10 +33,6 @@
   </si>
   <si>
     <t>트러블 슈팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,13 +178,21 @@
   <si>
     <t>비동기로 차트 페이지를 불러오면 파트 페이지가 계속 쌓이면서 loader도 페이지 쌓이는 만큼 로드됨.
 비동기일 경우, &lt;script src="https://www.gstatic.com/charts/loader.js"&gt;&lt;/script&gt;는 메인 페이지에만 넣고 차트 페이지에는 넣지 말 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소분류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -580,2333 +580,2333 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="59.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="94.44140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="59.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="1"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="1"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="1"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="1"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="1"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="1"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="1"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="1"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="1"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="1"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="1"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="1"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="1"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="1"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="1"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="1"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="1"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="1"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="1"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="1"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="1"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="1"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="1"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="1"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="1"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="1"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="1"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="1"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="1"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="1"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="1"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="1"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="1"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="1"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="1"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="1"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="1"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="1"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="1"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="1"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="1"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="1"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="1"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="1"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="1"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="1"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="1"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="1"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="1"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="1"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="1"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="1"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="1"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="1"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="1"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="1"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="1"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="1"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="1"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="1"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="1"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="1"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="1"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="1"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="1"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="1"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="1"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="1"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="1"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="1"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="1"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="1"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="1"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="1"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="1"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="1"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="1"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="1"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="1"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="1"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="1"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="1"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="1"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="1"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="1"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="1"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="1"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="1"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="1"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="1"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="1"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="1"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="1"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="1"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="1"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="1"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="1"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="1"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="1"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="1"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="1"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="1"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="1"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="1"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="1"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="1"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="1"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="1"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="1"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="1"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="1"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="1"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="1"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="1"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="1"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="1"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="1"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="1"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="1"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="1"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="1"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="1"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="1"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="1"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="1"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="1"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="1"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="1"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="1"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="1"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="1"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="1"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="1"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="1"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="1"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="1"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="1"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="1"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="1"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="1"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="1"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="1"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="1"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="1"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="1"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="1"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="1"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="1"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="1"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="1"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="1"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="1"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="1"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="1"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="1"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="1"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="1"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="1"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="1"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="1"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="1"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="1"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="1"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="1"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="1"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="1"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="1"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="1"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="1"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="1"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="1"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="1"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="1"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="1"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="1"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="1"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="1"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="1"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="1"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="1"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="1"/>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="1"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="1"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="1"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="1"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="1"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="1"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="1"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="1"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="1"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="1"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="1"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="1"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="1"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="1"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="1"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="1"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="1"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="1"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="1"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="1"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="1"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="1"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="1"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="1"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="1"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="1"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="1"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="1"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="1"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="1"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="1"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="1"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="1"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="1"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="1"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="1"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="1"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="1"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="1"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="1"/>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="1"/>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="1"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="1"/>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="1"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="1"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="1"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="1"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="1"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="1"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="1"/>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="1"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="1"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="1"/>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="1"/>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="1"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="1"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="1"/>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="1"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="1"/>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="1"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="1"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="1"/>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="1"/>
       <c r="E264" s="5"/>
     </row>
-    <row r="265" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="1"/>
       <c r="E265" s="5"/>
     </row>
-    <row r="266" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="1"/>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="1"/>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="1"/>
       <c r="E268" s="5"/>
     </row>
-    <row r="269" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="1"/>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="1"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="1"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="1"/>
       <c r="E272" s="5"/>
     </row>
-    <row r="273" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="1"/>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="1"/>
       <c r="E274" s="5"/>
     </row>
-    <row r="275" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="1"/>
       <c r="E275" s="5"/>
     </row>
-    <row r="276" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="1"/>
       <c r="E276" s="5"/>
     </row>
-    <row r="277" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="1"/>
       <c r="E277" s="5"/>
     </row>
-    <row r="278" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="1"/>
       <c r="E278" s="5"/>
     </row>
-    <row r="279" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="1"/>
       <c r="E279" s="5"/>
     </row>
-    <row r="280" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="1"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="1"/>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="1"/>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="1"/>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="1"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="1"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="1"/>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="1"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="1"/>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="1"/>
       <c r="E289" s="5"/>
     </row>
-    <row r="290" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="1"/>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="1"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="1"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="1"/>
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="1"/>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="1"/>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="1"/>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="1"/>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="1"/>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="1"/>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="1"/>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="1"/>
       <c r="E301" s="5"/>
     </row>
-    <row r="302" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="1"/>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="1"/>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="1"/>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="1"/>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="1"/>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="1"/>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="1"/>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="1"/>
       <c r="E309" s="5"/>
     </row>
-    <row r="310" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="1"/>
       <c r="E310" s="5"/>
     </row>
-    <row r="311" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="1"/>
       <c r="E311" s="5"/>
     </row>
-    <row r="312" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="1"/>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="4"/>
